--- a/Insertion_Sort/insertionsort.xlsx
+++ b/Insertion_Sort/insertionsort.xlsx
@@ -5,30 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamizullahkabbo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamizullahkabbo/Downloads/Geeks Corner/IIUC/CSE-2422_Algorithms/Insertion_Sort/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76E1242-C529-0042-A8EF-3B8BDBCB29F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7AB475-7D3F-B94A-8173-BA838636980C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CF711C7D-246A-1E40-9498-523EA380F2CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$6</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$6</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$2:$A$6</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$B$6</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">Sheet1!$B$2:$B$6</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">Sheet1!$A$2:$A$6</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -209,10 +195,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>100000</c:v>
                 </c:pt>
@@ -228,15 +214,18 @@
                 <c:pt idx="4">
                   <c:v>500000</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -252,13 +241,16 @@
                 <c:pt idx="4">
                   <c:v>228</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>910</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9A4D-AE48-A3D2-8F76B6AACF19}"/>
+              <c16:uniqueId val="{00000000-70E0-B94F-87B7-D03E2BD821BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -270,11 +262,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1481055488"/>
-        <c:axId val="1470895616"/>
+        <c:axId val="1409629520"/>
+        <c:axId val="1409844848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1481055488"/>
+        <c:axId val="1409629520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -331,12 +323,12 @@
             <a:endParaRPr lang="en-BD"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1470895616"/>
+        <c:crossAx val="1409844848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1470895616"/>
+        <c:axId val="1409844848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -393,7 +385,7 @@
             <a:endParaRPr lang="en-BD"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1481055488"/>
+        <c:crossAx val="1409629520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1003,22 +995,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>692150</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD7980D-4906-FB92-FE98-202908269E00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CE7D4F2-C66B-CBFF-222B-B6B540A45614}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1336,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1B556B-4DD7-364C-9122-676B254999D9}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1395,8 +1387,17 @@
         <v>228</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B7">
+        <v>910</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>